--- a/examples/calcFD_mask.xlsx
+++ b/examples/calcFD_mask.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Masks" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -811,9 +811,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -872,7 +874,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -886,6 +888,7 @@
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -900,6 +903,7 @@
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1170,7 +1174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1184,7 +1188,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+      <selection activeCell="F2" sqref="F2:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1950,7 +1954,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1968,7 +1972,7 @@
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1986,7 +1990,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
